--- a/src/test/java/testData/ItemsData.xlsx
+++ b/src/test/java/testData/ItemsData.xlsx
@@ -12,24 +12,27 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Item Name</t>
   </si>
   <si>
     <t>Price</t>
   </si>
+  <si>
+    <t>Nokia 3 Dual Sim - 16GB, 2GB RAM, 4G LTE, Tempered Blue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +47,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,9 +80,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,27 +398,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/java/testData/ItemsData.xlsx
+++ b/src/test/java/testData/ItemsData.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Item Name</t>
   </si>
@@ -26,6 +25,15 @@
   </si>
   <si>
     <t>Nokia 3 Dual Sim - 16GB, 2GB RAM, 4G LTE, Tempered Blue</t>
+  </si>
+  <si>
+    <t>1,499.00</t>
+  </si>
+  <si>
+    <t>nokia-105-blue-6281373</t>
+  </si>
+  <si>
+    <t>359.00 </t>
   </si>
 </sst>
 </file>
@@ -56,6 +64,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -87,15 +96,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,13 +410,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -419,16 +428,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>1499</v>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/testData/ItemsData.xlsx
+++ b/src/test/java/testData/ItemsData.xlsx
@@ -27,20 +27,20 @@
     <t>Nokia 3 Dual Sim - 16GB, 2GB RAM, 4G LTE, Tempered Blue</t>
   </si>
   <si>
+    <t>359.00</t>
+  </si>
+  <si>
     <t>1,499.00</t>
   </si>
   <si>
-    <t>nokia-105-blue-6281373</t>
-  </si>
-  <si>
-    <t>359.00 </t>
+    <t>Nokia 105 -2017 , 4MB , 2G , Blue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -93,19 +99,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,13 +414,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -428,19 +432,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testData/ItemsData.xlsx
+++ b/src/test/java/testData/ItemsData.xlsx
@@ -27,13 +27,13 @@
     <t>Nokia 3 Dual Sim - 16GB, 2GB RAM, 4G LTE, Tempered Blue</t>
   </si>
   <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>1,499.00</t>
-  </si>
-  <si>
-    <t>Nokia 105 -2017 , 4MB , 2G , Blue</t>
+    <t>1,488.00</t>
+  </si>
+  <si>
+    <t>NOKIA 130 Series 30 Grey 2017</t>
+  </si>
+  <si>
+    <t>480.00</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,15 +436,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testData/ItemsData.xlsx
+++ b/src/test/java/testData/ItemsData.xlsx
@@ -27,13 +27,13 @@
     <t>Nokia 3 Dual Sim - 16GB, 2GB RAM, 4G LTE, Tempered Blue</t>
   </si>
   <si>
-    <t>1,488.00</t>
-  </si>
-  <si>
     <t>NOKIA 130 Series 30 Grey 2017</t>
   </si>
   <si>
-    <t>480.00</t>
+    <t>2,550.00</t>
+  </si>
+  <si>
+    <t>488.00</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,12 +436,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
